--- a/xlsx/環境科技_intext.xlsx
+++ b/xlsx/環境科技_intext.xlsx
@@ -29,7 +29,7 @@
     <t>環境科學</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_環境科技</t>
+    <t>体育运动_体育运动_技术_環境科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%92%B0%E5%A2%83</t>
